--- a/Planeacion del Trabajo/06-19-15_PP_HER_v1_Herramienta para la Administración de Riesgos.xlsx
+++ b/Planeacion del Trabajo/06-19-15_PP_HER_v1_Herramienta para la Administración de Riesgos.xlsx
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="386">
   <si>
     <t xml:space="preserve">El informe del resumen de los riesgos sintetiza el estado total de los riesgos en el proyecto.  </t>
   </si>
@@ -2110,6 +2110,189 @@
   </si>
   <si>
     <t>Junio 2015 identificacion del mal rastreo de los requerimientos de validar y revisar  dentro de la etapa de Diseño</t>
+  </si>
+  <si>
+    <t>El tester  que prueba el  modulo es el  mismo que lo realizo</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>EPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omicion de los errores encontrados en la fase de pruebas </t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>No contar con un control sobre el proceso de pruebas</t>
+  </si>
+  <si>
+    <t>si el resposable es el mismo que realizo un modulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se encontraran menos errores ya que no es una persona diferente </t>
+  </si>
+  <si>
+    <t>no se asigno el responsable correcto para  la realizacion de las pruebas</t>
+  </si>
+  <si>
+    <t>junio 2015  analizar que  el programador de los modulos no sea el mismo que pruebe</t>
+  </si>
+  <si>
+    <t>identificar los responsables de cada area</t>
+  </si>
+  <si>
+    <t>evitar que el mismo porgramador  realice pruebas</t>
+  </si>
+  <si>
+    <t>el encargado para realizar pruebas se encuentre</t>
+  </si>
+  <si>
+    <t>el que realiza las pruebas se alguien totalmente diferente a quien realizo el modulo</t>
+  </si>
+  <si>
+    <t>si el que realiza las pruebas omite los errores para evitar  mas trabajo</t>
+  </si>
+  <si>
+    <t>El proyecto seguira teniendo fallas  ya que  se omitieron las pruebas</t>
+  </si>
+  <si>
+    <t>junio 2015 Evitar que los responsables de pruebas  no omitan los errores encontrados</t>
+  </si>
+  <si>
+    <t>cuando el que realiza las pruebas no hace bien  su responsabilidad</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> se lleva  un control  al realizar  las pruebas</t>
+  </si>
+  <si>
+    <t>se realizan pruebas que no concuerdan con el proceson  de pruebas</t>
+  </si>
+  <si>
+    <t>las pruebas no se realizan de manera correcta por no llevar un control</t>
+  </si>
+  <si>
+    <t>junio 2015   llevar un control sobre las pruebas  realizadas identificandolas</t>
+  </si>
+  <si>
+    <t>buscar errores</t>
+  </si>
+  <si>
+    <t>identificar errores</t>
+  </si>
+  <si>
+    <t>llevar un control sobre los errores encontrados</t>
+  </si>
+  <si>
+    <t>evitar que los errores se omitan en el control llevado</t>
+  </si>
+  <si>
+    <t>realizar un control</t>
+  </si>
+  <si>
+    <t>informar a los integrantes del control</t>
+  </si>
+  <si>
+    <t>revisar el estatus del control</t>
+  </si>
+  <si>
+    <t>verificar en que porceso de pruebas se encuentra el  proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El codigo  no va de acuerdo a las convenciones establesidas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los modulos son mas complejos del tiempo establesido </t>
+  </si>
+  <si>
+    <t>no se encuentra bien definido el diagramade clases para el desarrrollo</t>
+  </si>
+  <si>
+    <t>el proyecto no es  lo acordado</t>
+  </si>
+  <si>
+    <t>el cliente no quiere el proyecto</t>
+  </si>
+  <si>
+    <t>el cliente no aceptara el proyecto  y el equipo de trabajo tendra que modificar todo</t>
+  </si>
+  <si>
+    <t>juino 2015 el proyecto es aceptado por el cliente ya que  esta acuerdo a lo establecido</t>
+  </si>
+  <si>
+    <t>identificar los requerimientos</t>
+  </si>
+  <si>
+    <t>quitar cualquier duda que tenga el equipo de trabajo</t>
+  </si>
+  <si>
+    <t>llevar un analisis  para saber que quiere el cliente</t>
+  </si>
+  <si>
+    <t>realizar el  codigo dependiendo de lo que el cliente requiera</t>
+  </si>
+  <si>
+    <t>VCM</t>
+  </si>
+  <si>
+    <t>verificar los requerimientos</t>
+  </si>
+  <si>
+    <t>dedicir si se puede realizar</t>
+  </si>
+  <si>
+    <t>buscar las personas adecuadas</t>
+  </si>
+  <si>
+    <t>realizar los modulos</t>
+  </si>
+  <si>
+    <t>si los porgramadores son inexpertos o es algo que no se puede realizar</t>
+  </si>
+  <si>
+    <t>el proyecto no se puede realizar</t>
+  </si>
+  <si>
+    <t>El proyecto no se puede hacer  y hay que llegar a otro acuerdo</t>
+  </si>
+  <si>
+    <t>el proyecto esta en condifiones de modificar</t>
+  </si>
+  <si>
+    <t>el diseño no esta bien realizado</t>
+  </si>
+  <si>
+    <t>la programacion se hace incorrectamente</t>
+  </si>
+  <si>
+    <t>la programacion esta mal por lo tanto no  funciona correctamente el proyecto</t>
+  </si>
+  <si>
+    <t>el digrama  de clases se tiene que modificar y  porgramar de nuevo</t>
+  </si>
+  <si>
+    <t>realizar el diagrama de clases</t>
+  </si>
+  <si>
+    <t>revisar el diagrama de clases varias veces</t>
+  </si>
+  <si>
+    <t>llegar un acuerdo con el programador y el diseñador que esta bien el diagrama</t>
+  </si>
+  <si>
+    <t>programar el diagrama de clases</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2868,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3272,6 +3455,33 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3281,19 +3491,13 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_RM_Risks" xfId="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="27">
     <dxf>
       <font>
         <b/>
@@ -3393,6 +3597,55 @@
       <fill>
         <patternFill>
           <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="14"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3809,7 +4062,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3932,7 +4185,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4178,7 +4431,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4203,12 +4456,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="29651328"/>
-        <c:axId val="29652864"/>
-        <c:axId val="54909568"/>
+        <c:axId val="30486912"/>
+        <c:axId val="30488448"/>
+        <c:axId val="55237248"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="29651328"/>
+        <c:axId val="30486912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4506,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29652864"/>
+        <c:crossAx val="30488448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4263,7 +4516,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29652864"/>
+        <c:axId val="30488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,13 +4561,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29651328"/>
+        <c:crossAx val="30486912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="54909568"/>
+        <c:axId val="55237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4612,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29652864"/>
+        <c:crossAx val="30488448"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -4527,8 +4780,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2154901" y="182880"/>
-          <a:ext cx="4185459" cy="1709478"/>
+          <a:off x="2198716" y="182880"/>
+          <a:ext cx="4307379" cy="1745673"/>
           <a:chOff x="181" y="29"/>
           <a:chExt cx="439" cy="171"/>
         </a:xfrm>
@@ -5399,7 +5652,7 @@
                   <a:pPr algn="ctr" rtl="0">
                     <a:defRPr sz="1000"/>
                   </a:pPr>
-                  <a:t>0</a:t>
+                  <a:t>3</a:t>
                 </a:fld>
                 <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -5700,7 +5953,7 @@
                   <a:pPr algn="ctr" rtl="0">
                     <a:defRPr sz="1000"/>
                   </a:pPr>
-                  <a:t>2</a:t>
+                  <a:t>4</a:t>
                 </a:fld>
                 <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -5757,7 +6010,7 @@
                   <a:pPr algn="ctr" rtl="0">
                     <a:defRPr sz="1000"/>
                   </a:pPr>
-                  <a:t>3</a:t>
+                  <a:t>4</a:t>
                 </a:fld>
                 <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
@@ -7078,10 +7331,10 @@
       <c r="D15" s="197"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215" t="s">
+      <c r="A16" s="224" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="216"/>
+      <c r="B16" s="225"/>
       <c r="C16" s="199"/>
       <c r="D16" s="199"/>
       <c r="E16" s="200"/>
@@ -7121,10 +7374,10 @@
       <c r="D21" s="197"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215" t="s">
+      <c r="A22" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="216"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="197"/>
       <c r="D22" s="197"/>
     </row>
@@ -7163,12 +7416,12 @@
       <c r="D27" s="197"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="224" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="217"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="216"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="225"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="196" t="s">
@@ -7219,8 +7472,8 @@
   </sheetPr>
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7805,7 +8058,7 @@
       <c r="B96" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="218"/>
+      <c r="C96" s="215"/>
       <c r="G96" s="78"/>
       <c r="H96" s="78"/>
       <c r="I96" s="78"/>
@@ -8085,8 +8338,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D359" sqref="D359"/>
+    <sheetView tabSelected="1" topLeftCell="A532" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C509" sqref="C509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8778,7 +9031,7 @@
       <c r="B36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="216" t="s">
         <v>261</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -10570,7 +10823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="164" t="s">
         <v>109</v>
       </c>
@@ -14817,7 +15070,7 @@
         <v>15</v>
       </c>
       <c r="D368" s="166" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="E368" s="167" t="s">
         <v>51</v>
@@ -14836,22 +15089,25 @@
       <c r="B369" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="C369" s="191"/>
+      <c r="C369" s="191">
+        <v>5</v>
+      </c>
       <c r="D369" s="192"/>
       <c r="E369" s="21"/>
       <c r="F369" s="193"/>
+      <c r="G369" s="12"/>
       <c r="I369" s="138"/>
     </row>
     <row r="370" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B370" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C370" s="131" t="s">
-        <v>86</v>
+      <c r="C370" s="219" t="s">
+        <v>326</v>
       </c>
       <c r="D370" s="15" t="str">
         <f>IF(OR(C373="",C374=""),"",VLOOKUP(CONCATENATE(C373," - ",C374),Exposure,2))</f>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="E370" s="16" t="s">
         <v>135</v>
@@ -14870,7 +15126,9 @@
       <c r="B371" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C371" s="210"/>
+      <c r="C371" s="210" t="s">
+        <v>328</v>
+      </c>
       <c r="D371" s="15" t="s">
         <v>126</v>
       </c>
@@ -14891,13 +15149,15 @@
       <c r="B372" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C372" s="210"/>
+      <c r="C372" s="210" t="s">
+        <v>328</v>
+      </c>
       <c r="D372" s="18"/>
       <c r="E372" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F372" s="134" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I372" s="138" t="s">
         <v>93</v>
@@ -14911,7 +15171,7 @@
         <v>44</v>
       </c>
       <c r="C373" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D373" s="49" t="str">
         <f>IF(C373="","WARNING - Please enter a Probability.","")</f>
@@ -14935,7 +15195,7 @@
         <v>50</v>
       </c>
       <c r="C374" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D374" s="15" t="s">
         <v>96</v>
@@ -14943,8 +15203,8 @@
       <c r="E374" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F374" s="135" t="s">
-        <v>86</v>
+      <c r="F374" s="213" t="s">
+        <v>327</v>
       </c>
       <c r="I374" s="138" t="s">
         <v>93</v>
@@ -14966,8 +15226,8 @@
       <c r="E375" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F375" s="175" t="s">
-        <v>86</v>
+      <c r="F375" s="217" t="s">
+        <v>327</v>
       </c>
       <c r="I375" s="138" t="s">
         <v>93</v>
@@ -14995,7 +15255,7 @@
         <v>89</v>
       </c>
       <c r="D377" s="174" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="E377" s="18"/>
       <c r="F377" s="19"/>
@@ -15024,8 +15284,8 @@
       <c r="C379" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D379" s="22" t="s">
-        <v>111</v>
+      <c r="D379" s="223" t="s">
+        <v>334</v>
       </c>
       <c r="E379" s="18"/>
       <c r="F379" s="19"/>
@@ -15049,12 +15309,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B381" s="20"/>
       <c r="C381" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D381" s="22"/>
+      <c r="D381" s="223" t="s">
+        <v>335</v>
+      </c>
       <c r="E381" s="18"/>
       <c r="F381" s="19"/>
       <c r="I381" s="138" t="s">
@@ -15077,12 +15339,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B383" s="20"/>
       <c r="C383" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D383" s="22"/>
+      <c r="D383" s="223" t="s">
+        <v>336</v>
+      </c>
       <c r="E383" s="18"/>
       <c r="F383" s="19"/>
       <c r="I383" s="138" t="s">
@@ -15155,20 +15419,20 @@
       </c>
     </row>
     <row r="388" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B388" s="25" t="s">
-        <v>87</v>
+      <c r="B388" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C388" s="26">
         <v>1</v>
       </c>
-      <c r="D388" s="22" t="s">
-        <v>100</v>
+      <c r="D388" s="223" t="s">
+        <v>337</v>
       </c>
       <c r="E388" s="27" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="F388" s="28" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="I388" s="138" t="s">
         <v>93</v>
@@ -15178,20 +15442,20 @@
       </c>
     </row>
     <row r="389" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B389" s="25" t="s">
-        <v>87</v>
+      <c r="B389" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C389" s="26">
         <v>2</v>
       </c>
-      <c r="D389" s="22" t="s">
-        <v>101</v>
+      <c r="D389" s="223" t="s">
+        <v>338</v>
       </c>
       <c r="E389" s="27" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="F389" s="28" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="I389" s="138" t="s">
         <v>93</v>
@@ -15201,20 +15465,20 @@
       </c>
     </row>
     <row r="390" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B390" s="25" t="s">
-        <v>87</v>
+      <c r="B390" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C390" s="26">
         <v>3</v>
       </c>
-      <c r="D390" s="22" t="s">
-        <v>102</v>
+      <c r="D390" s="223" t="s">
+        <v>339</v>
       </c>
       <c r="E390" s="27" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="F390" s="28" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="I390" s="138" t="s">
         <v>93</v>
@@ -15223,21 +15487,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B391" s="25" t="s">
-        <v>87</v>
+    <row r="391" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B391" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C391" s="26">
         <v>4</v>
       </c>
-      <c r="D391" s="22" t="s">
-        <v>103</v>
+      <c r="D391" s="223" t="s">
+        <v>340</v>
       </c>
       <c r="E391" s="27" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="F391" s="28" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="I391" s="138" t="s">
         <v>93</v>
@@ -15277,7 +15541,7 @@
         <v>16</v>
       </c>
       <c r="D394" s="166" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="E394" s="167" t="s">
         <v>51</v>
@@ -15296,7 +15560,9 @@
       <c r="B395" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="C395" s="191"/>
+      <c r="C395" s="191">
+        <v>5</v>
+      </c>
       <c r="D395" s="192"/>
       <c r="E395" s="21"/>
       <c r="F395" s="193"/>
@@ -15306,18 +15572,18 @@
       <c r="B396" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C396" s="131" t="s">
-        <v>86</v>
+      <c r="C396" s="219" t="s">
+        <v>330</v>
       </c>
       <c r="D396" s="15" t="str">
         <f>IF(OR(C399="",C400=""),"",VLOOKUP(CONCATENATE(C399," - ",C400),Exposure,2))</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="E396" s="16" t="s">
         <v>135</v>
       </c>
       <c r="F396" s="113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" s="138" t="s">
         <v>93</v>
@@ -15330,7 +15596,9 @@
       <c r="B397" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C397" s="210"/>
+      <c r="C397" s="210" t="s">
+        <v>328</v>
+      </c>
       <c r="D397" s="15" t="s">
         <v>126</v>
       </c>
@@ -15351,13 +15619,15 @@
       <c r="B398" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C398" s="210"/>
+      <c r="C398" s="210" t="s">
+        <v>328</v>
+      </c>
       <c r="D398" s="18"/>
       <c r="E398" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F398" s="134" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I398" s="138" t="s">
         <v>93</v>
@@ -15371,7 +15641,7 @@
         <v>44</v>
       </c>
       <c r="C399" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D399" s="49" t="str">
         <f>IF(C399="","WARNING - Please enter a Probability.","")</f>
@@ -15395,7 +15665,7 @@
         <v>50</v>
       </c>
       <c r="C400" s="133" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D400" s="15" t="s">
         <v>96</v>
@@ -15403,8 +15673,8 @@
       <c r="E400" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F400" s="135" t="s">
-        <v>86</v>
+      <c r="F400" s="220" t="s">
+        <v>331</v>
       </c>
       <c r="I400" s="138" t="s">
         <v>93</v>
@@ -15426,8 +15696,8 @@
       <c r="E401" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F401" s="175" t="s">
-        <v>86</v>
+      <c r="F401" s="221" t="s">
+        <v>331</v>
       </c>
       <c r="I401" s="138" t="s">
         <v>93</v>
@@ -15449,13 +15719,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B403" s="20"/>
       <c r="C403" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D403" s="174" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="E403" s="18"/>
       <c r="F403" s="19"/>
@@ -15479,13 +15749,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B405" s="20"/>
       <c r="C405" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D405" s="22" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="E405" s="18"/>
       <c r="F405" s="19"/>
@@ -15514,7 +15784,9 @@
       <c r="C407" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D407" s="22"/>
+      <c r="D407" s="22" t="s">
+        <v>344</v>
+      </c>
       <c r="E407" s="18"/>
       <c r="F407" s="19"/>
       <c r="I407" s="138" t="s">
@@ -15537,12 +15809,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B409" s="20"/>
       <c r="C409" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D409" s="22"/>
+      <c r="D409" s="22" t="s">
+        <v>343</v>
+      </c>
       <c r="E409" s="18"/>
       <c r="F409" s="19"/>
       <c r="I409" s="138" t="s">
@@ -15615,20 +15889,20 @@
       </c>
     </row>
     <row r="414" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B414" s="25" t="s">
-        <v>87</v>
+      <c r="B414" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C414" s="26">
         <v>1</v>
       </c>
       <c r="D414" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E414" s="27" t="s">
-        <v>86</v>
+        <v>350</v>
+      </c>
+      <c r="E414" s="219" t="s">
+        <v>330</v>
       </c>
       <c r="F414" s="28" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="I414" s="138" t="s">
         <v>93</v>
@@ -15638,20 +15912,20 @@
       </c>
     </row>
     <row r="415" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B415" s="25" t="s">
-        <v>87</v>
+      <c r="B415" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C415" s="26">
         <v>2</v>
       </c>
       <c r="D415" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E415" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F415" s="28" t="s">
-        <v>86</v>
+        <v>351</v>
+      </c>
+      <c r="E415" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F415" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I415" s="138" t="s">
         <v>93</v>
@@ -15661,20 +15935,20 @@
       </c>
     </row>
     <row r="416" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B416" s="25" t="s">
-        <v>87</v>
+      <c r="B416" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C416" s="26">
         <v>3</v>
       </c>
       <c r="D416" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E416" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F416" s="28" t="s">
-        <v>86</v>
+        <v>352</v>
+      </c>
+      <c r="E416" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F416" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I416" s="138" t="s">
         <v>93</v>
@@ -15684,20 +15958,20 @@
       </c>
     </row>
     <row r="417" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B417" s="25" t="s">
-        <v>87</v>
+      <c r="B417" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C417" s="26">
         <v>4</v>
       </c>
       <c r="D417" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E417" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F417" s="28" t="s">
-        <v>86</v>
+        <v>353</v>
+      </c>
+      <c r="E417" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F417" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I417" s="138" t="s">
         <v>93</v>
@@ -15737,7 +16011,7 @@
         <v>17</v>
       </c>
       <c r="D420" s="166" t="s">
-        <v>88</v>
+        <v>332</v>
       </c>
       <c r="E420" s="167" t="s">
         <v>51</v>
@@ -15756,7 +16030,9 @@
       <c r="B421" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="C421" s="191"/>
+      <c r="C421" s="191">
+        <v>5</v>
+      </c>
       <c r="D421" s="192"/>
       <c r="E421" s="21"/>
       <c r="F421" s="193"/>
@@ -15766,18 +16042,18 @@
       <c r="B422" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C422" s="131" t="s">
-        <v>86</v>
+      <c r="C422" s="219" t="s">
+        <v>330</v>
       </c>
       <c r="D422" s="15" t="str">
         <f>IF(OR(C425="",C426=""),"",VLOOKUP(CONCATENATE(C425," - ",C426),Exposure,2))</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="E422" s="16" t="s">
         <v>135</v>
       </c>
       <c r="F422" s="113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I422" s="138" t="s">
         <v>93</v>
@@ -15790,8 +16066,8 @@
       <c r="B423" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C423" s="131" t="s">
-        <v>87</v>
+      <c r="C423" s="210" t="s">
+        <v>244</v>
       </c>
       <c r="D423" s="15" t="s">
         <v>126</v>
@@ -15813,15 +16089,15 @@
       <c r="B424" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C424" s="132" t="s">
-        <v>87</v>
+      <c r="C424" s="212" t="s">
+        <v>328</v>
       </c>
       <c r="D424" s="18"/>
       <c r="E424" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F424" s="134" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I424" s="138" t="s">
         <v>93</v>
@@ -15835,7 +16111,7 @@
         <v>44</v>
       </c>
       <c r="C425" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D425" s="49" t="str">
         <f>IF(C425="","WARNING - Please enter a Probability.","")</f>
@@ -15859,7 +16135,7 @@
         <v>50</v>
       </c>
       <c r="C426" s="133" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D426" s="15" t="s">
         <v>96</v>
@@ -15867,8 +16143,8 @@
       <c r="E426" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F426" s="135" t="s">
-        <v>86</v>
+      <c r="F426" s="220" t="s">
+        <v>331</v>
       </c>
       <c r="I426" s="138" t="s">
         <v>93</v>
@@ -15890,8 +16166,8 @@
       <c r="E427" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F427" s="175" t="s">
-        <v>86</v>
+      <c r="F427" s="221" t="s">
+        <v>331</v>
       </c>
       <c r="I427" s="138" t="s">
         <v>93</v>
@@ -15919,7 +16195,7 @@
         <v>89</v>
       </c>
       <c r="D429" s="174" t="s">
-        <v>110</v>
+        <v>346</v>
       </c>
       <c r="E429" s="18"/>
       <c r="F429" s="19"/>
@@ -15943,13 +16219,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B431" s="20"/>
       <c r="C431" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D431" s="22" t="s">
-        <v>111</v>
+        <v>347</v>
       </c>
       <c r="E431" s="18"/>
       <c r="F431" s="19"/>
@@ -15973,12 +16249,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B433" s="20"/>
       <c r="C433" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D433" s="22"/>
+      <c r="D433" s="22" t="s">
+        <v>348</v>
+      </c>
       <c r="E433" s="18"/>
       <c r="F433" s="19"/>
       <c r="I433" s="138" t="s">
@@ -16001,12 +16279,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B435" s="20"/>
       <c r="C435" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D435" s="22"/>
+      <c r="D435" s="22" t="s">
+        <v>349</v>
+      </c>
       <c r="E435" s="18"/>
       <c r="F435" s="19"/>
       <c r="I435" s="138" t="s">
@@ -16079,20 +16359,20 @@
       </c>
     </row>
     <row r="440" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B440" s="25" t="s">
-        <v>87</v>
+      <c r="B440" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C440" s="26">
         <v>1</v>
       </c>
       <c r="D440" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E440" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F440" s="28" t="s">
-        <v>86</v>
+        <v>354</v>
+      </c>
+      <c r="E440" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F440" s="220" t="s">
+        <v>331</v>
       </c>
       <c r="I440" s="138" t="s">
         <v>93</v>
@@ -16102,20 +16382,20 @@
       </c>
     </row>
     <row r="441" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B441" s="25" t="s">
-        <v>87</v>
+      <c r="B441" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C441" s="26">
         <v>2</v>
       </c>
       <c r="D441" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E441" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F441" s="28" t="s">
-        <v>86</v>
+        <v>355</v>
+      </c>
+      <c r="E441" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F441" s="220" t="s">
+        <v>331</v>
       </c>
       <c r="I441" s="138" t="s">
         <v>93</v>
@@ -16125,20 +16405,20 @@
       </c>
     </row>
     <row r="442" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B442" s="25" t="s">
-        <v>87</v>
+      <c r="B442" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C442" s="26">
         <v>3</v>
       </c>
       <c r="D442" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E442" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F442" s="28" t="s">
-        <v>86</v>
+        <v>356</v>
+      </c>
+      <c r="E442" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F442" s="220" t="s">
+        <v>331</v>
       </c>
       <c r="I442" s="138" t="s">
         <v>93</v>
@@ -16148,20 +16428,20 @@
       </c>
     </row>
     <row r="443" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B443" s="25" t="s">
-        <v>87</v>
+      <c r="B443" s="218" t="s">
+        <v>328</v>
       </c>
       <c r="C443" s="26">
         <v>4</v>
       </c>
       <c r="D443" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E443" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F443" s="28" t="s">
-        <v>86</v>
+        <v>357</v>
+      </c>
+      <c r="E443" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="F443" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I443" s="138" t="s">
         <v>93</v>
@@ -16201,7 +16481,7 @@
         <v>18</v>
       </c>
       <c r="D446" s="166" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="E446" s="167" t="s">
         <v>51</v>
@@ -16220,7 +16500,9 @@
       <c r="B447" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="C447" s="191"/>
+      <c r="C447" s="191">
+        <v>4</v>
+      </c>
       <c r="D447" s="192"/>
       <c r="E447" s="21"/>
       <c r="F447" s="193"/>
@@ -16230,12 +16512,12 @@
       <c r="B448" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C448" s="131" t="s">
-        <v>86</v>
+      <c r="C448" s="210" t="s">
+        <v>331</v>
       </c>
       <c r="D448" s="15" t="str">
         <f>IF(OR(C451="",C452=""),"",VLOOKUP(CONCATENATE(C451," - ",C452),Exposure,2))</f>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="E448" s="16" t="s">
         <v>135</v>
@@ -16254,8 +16536,8 @@
       <c r="B449" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C449" s="131" t="s">
-        <v>87</v>
+      <c r="C449" s="210" t="s">
+        <v>328</v>
       </c>
       <c r="D449" s="15" t="s">
         <v>126</v>
@@ -16277,15 +16559,15 @@
       <c r="B450" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C450" s="132" t="s">
-        <v>87</v>
+      <c r="C450" s="212" t="s">
+        <v>328</v>
       </c>
       <c r="D450" s="18"/>
       <c r="E450" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F450" s="134" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I450" s="138" t="s">
         <v>93</v>
@@ -16299,7 +16581,7 @@
         <v>44</v>
       </c>
       <c r="C451" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D451" s="49" t="str">
         <f>IF(C451="","WARNING - Please enter a Probability.","")</f>
@@ -16323,7 +16605,7 @@
         <v>50</v>
       </c>
       <c r="C452" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D452" s="15" t="s">
         <v>96</v>
@@ -16331,8 +16613,8 @@
       <c r="E452" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F452" s="135" t="s">
-        <v>86</v>
+      <c r="F452" s="213" t="s">
+        <v>345</v>
       </c>
       <c r="I452" s="138" t="s">
         <v>93</v>
@@ -16354,8 +16636,8 @@
       <c r="E453" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F453" s="175" t="s">
-        <v>86</v>
+      <c r="F453" s="217" t="s">
+        <v>345</v>
       </c>
       <c r="I453" s="138" t="s">
         <v>93</v>
@@ -16383,7 +16665,7 @@
         <v>89</v>
       </c>
       <c r="D455" s="174" t="s">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="E455" s="18"/>
       <c r="F455" s="19"/>
@@ -16413,7 +16695,7 @@
         <v>90</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="E457" s="18"/>
       <c r="F457" s="19"/>
@@ -16437,12 +16719,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B459" s="20"/>
       <c r="C459" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D459" s="22"/>
+      <c r="D459" s="22" t="s">
+        <v>363</v>
+      </c>
       <c r="E459" s="18"/>
       <c r="F459" s="19"/>
       <c r="I459" s="138" t="s">
@@ -16465,12 +16749,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B461" s="20"/>
       <c r="C461" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D461" s="22"/>
+      <c r="D461" s="22" t="s">
+        <v>364</v>
+      </c>
       <c r="E461" s="18"/>
       <c r="F461" s="19"/>
       <c r="I461" s="138" t="s">
@@ -16544,19 +16830,19 @@
     </row>
     <row r="466" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B466" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C466" s="26">
         <v>1</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E466" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F466" s="28" t="s">
-        <v>86</v>
+        <v>365</v>
+      </c>
+      <c r="E466" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F466" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I466" s="138" t="s">
         <v>93</v>
@@ -16567,19 +16853,19 @@
     </row>
     <row r="467" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B467" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C467" s="26">
         <v>2</v>
       </c>
       <c r="D467" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E467" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F467" s="28" t="s">
-        <v>86</v>
+        <v>366</v>
+      </c>
+      <c r="E467" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F467" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I467" s="138" t="s">
         <v>93</v>
@@ -16590,19 +16876,19 @@
     </row>
     <row r="468" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B468" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C468" s="26">
         <v>3</v>
       </c>
       <c r="D468" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E468" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F468" s="28" t="s">
-        <v>86</v>
+        <v>367</v>
+      </c>
+      <c r="E468" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F468" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I468" s="138" t="s">
         <v>93</v>
@@ -16613,19 +16899,19 @@
     </row>
     <row r="469" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B469" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C469" s="26">
         <v>4</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E469" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F469" s="28" t="s">
-        <v>86</v>
+        <v>368</v>
+      </c>
+      <c r="E469" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F469" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I469" s="138" t="s">
         <v>93</v>
@@ -16665,7 +16951,7 @@
         <v>19</v>
       </c>
       <c r="D472" s="166" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="E472" s="167" t="s">
         <v>51</v>
@@ -16684,7 +16970,9 @@
       <c r="B473" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="C473" s="191"/>
+      <c r="C473" s="191">
+        <v>4</v>
+      </c>
       <c r="D473" s="192"/>
       <c r="E473" s="21"/>
       <c r="F473" s="193"/>
@@ -16695,11 +16983,11 @@
         <v>39</v>
       </c>
       <c r="C474" s="131" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="D474" s="15" t="str">
         <f>IF(OR(C477="",C478=""),"",VLOOKUP(CONCATENATE(C477," - ",C478),Exposure,2))</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="E474" s="16" t="s">
         <v>135</v>
@@ -16718,8 +17006,8 @@
       <c r="B475" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C475" s="131" t="s">
-        <v>87</v>
+      <c r="C475" s="210" t="s">
+        <v>369</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>126</v>
@@ -16741,15 +17029,15 @@
       <c r="B476" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C476" s="132" t="s">
-        <v>87</v>
+      <c r="C476" s="212" t="s">
+        <v>328</v>
       </c>
       <c r="D476" s="18"/>
       <c r="E476" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F476" s="134" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I476" s="138" t="s">
         <v>93</v>
@@ -16763,7 +17051,7 @@
         <v>44</v>
       </c>
       <c r="C477" s="133" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D477" s="49" t="str">
         <f>IF(C477="","WARNING - Please enter a Probability.","")</f>
@@ -16787,7 +17075,7 @@
         <v>50</v>
       </c>
       <c r="C478" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D478" s="15" t="s">
         <v>96</v>
@@ -16796,7 +17084,7 @@
         <v>61</v>
       </c>
       <c r="F478" s="135" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="I478" s="138" t="s">
         <v>93</v>
@@ -16818,8 +17106,8 @@
       <c r="E479" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F479" s="175" t="s">
-        <v>86</v>
+      <c r="F479" s="217" t="s">
+        <v>331</v>
       </c>
       <c r="I479" s="138" t="s">
         <v>93</v>
@@ -16841,13 +17129,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B481" s="20"/>
       <c r="C481" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D481" s="174" t="s">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="E481" s="18"/>
       <c r="F481" s="19"/>
@@ -16877,7 +17165,7 @@
         <v>90</v>
       </c>
       <c r="D483" s="22" t="s">
-        <v>111</v>
+        <v>375</v>
       </c>
       <c r="E483" s="18"/>
       <c r="F483" s="19"/>
@@ -16906,7 +17194,9 @@
       <c r="C485" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D485" s="22"/>
+      <c r="D485" s="22" t="s">
+        <v>376</v>
+      </c>
       <c r="E485" s="18"/>
       <c r="F485" s="19"/>
       <c r="I485" s="138" t="s">
@@ -16934,7 +17224,9 @@
       <c r="C487" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D487" s="22"/>
+      <c r="D487" s="22" t="s">
+        <v>377</v>
+      </c>
       <c r="E487" s="18"/>
       <c r="F487" s="19"/>
       <c r="I487" s="138" t="s">
@@ -17008,19 +17300,19 @@
     </row>
     <row r="492" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B492" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C492" s="26">
         <v>1</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E492" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F492" s="28" t="s">
-        <v>86</v>
+        <v>370</v>
+      </c>
+      <c r="E492" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F492" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I492" s="138" t="s">
         <v>93</v>
@@ -17031,19 +17323,19 @@
     </row>
     <row r="493" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B493" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C493" s="26">
         <v>2</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E493" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F493" s="28" t="s">
-        <v>86</v>
+        <v>371</v>
+      </c>
+      <c r="E493" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F493" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I493" s="138" t="s">
         <v>93</v>
@@ -17054,19 +17346,19 @@
     </row>
     <row r="494" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B494" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C494" s="26">
         <v>3</v>
       </c>
       <c r="D494" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E494" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F494" s="28" t="s">
-        <v>86</v>
+        <v>372</v>
+      </c>
+      <c r="E494" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F494" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I494" s="138" t="s">
         <v>93</v>
@@ -17077,19 +17369,19 @@
     </row>
     <row r="495" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B495" s="25" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="C495" s="26">
         <v>4</v>
       </c>
       <c r="D495" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E495" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F495" s="28" t="s">
-        <v>86</v>
+        <v>373</v>
+      </c>
+      <c r="E495" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F495" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I495" s="138" t="s">
         <v>93</v>
@@ -17121,7 +17413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B498" s="164" t="s">
         <v>109</v>
       </c>
@@ -17129,7 +17421,7 @@
         <v>20</v>
       </c>
       <c r="D498" s="166" t="s">
-        <v>88</v>
+        <v>360</v>
       </c>
       <c r="E498" s="167" t="s">
         <v>51</v>
@@ -17148,7 +17440,9 @@
       <c r="B499" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="C499" s="191"/>
+      <c r="C499" s="191">
+        <v>4</v>
+      </c>
       <c r="D499" s="192"/>
       <c r="E499" s="21"/>
       <c r="F499" s="193"/>
@@ -17159,11 +17453,11 @@
         <v>39</v>
       </c>
       <c r="C500" s="131" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="D500" s="15" t="str">
         <f>IF(OR(C503="",C504=""),"",VLOOKUP(CONCATENATE(C503," - ",C504),Exposure,2))</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="E500" s="16" t="s">
         <v>135</v>
@@ -17182,8 +17476,8 @@
       <c r="B501" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C501" s="131" t="s">
-        <v>87</v>
+      <c r="C501" s="210" t="s">
+        <v>369</v>
       </c>
       <c r="D501" s="15" t="s">
         <v>126</v>
@@ -17205,15 +17499,15 @@
       <c r="B502" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C502" s="132" t="s">
-        <v>87</v>
+      <c r="C502" s="212" t="s">
+        <v>328</v>
       </c>
       <c r="D502" s="18"/>
       <c r="E502" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F502" s="134" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I502" s="138" t="s">
         <v>93</v>
@@ -17227,7 +17521,7 @@
         <v>44</v>
       </c>
       <c r="C503" s="133" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="D503" s="49" t="str">
         <f>IF(C503="","WARNING - Please enter a Probability.","")</f>
@@ -17251,7 +17545,7 @@
         <v>50</v>
       </c>
       <c r="C504" s="133" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D504" s="15" t="s">
         <v>96</v>
@@ -17260,7 +17554,7 @@
         <v>61</v>
       </c>
       <c r="F504" s="135" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="I504" s="138" t="s">
         <v>93</v>
@@ -17282,8 +17576,8 @@
       <c r="E505" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F505" s="175" t="s">
-        <v>86</v>
+      <c r="F505" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I505" s="138" t="s">
         <v>93</v>
@@ -17311,7 +17605,7 @@
         <v>89</v>
       </c>
       <c r="D507" s="174" t="s">
-        <v>110</v>
+        <v>378</v>
       </c>
       <c r="E507" s="18"/>
       <c r="F507" s="19"/>
@@ -17341,7 +17635,7 @@
         <v>90</v>
       </c>
       <c r="D509" s="22" t="s">
-        <v>111</v>
+        <v>379</v>
       </c>
       <c r="E509" s="18"/>
       <c r="F509" s="19"/>
@@ -17365,12 +17659,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B511" s="20"/>
       <c r="C511" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D511" s="22"/>
+      <c r="D511" s="22" t="s">
+        <v>380</v>
+      </c>
       <c r="E511" s="18"/>
       <c r="F511" s="19"/>
       <c r="I511" s="138" t="s">
@@ -17393,12 +17689,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B513" s="20"/>
       <c r="C513" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D513" s="22"/>
+      <c r="D513" s="22" t="s">
+        <v>381</v>
+      </c>
       <c r="E513" s="18"/>
       <c r="F513" s="19"/>
       <c r="I513" s="138" t="s">
@@ -17478,13 +17776,13 @@
         <v>1</v>
       </c>
       <c r="D518" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E518" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F518" s="28" t="s">
-        <v>86</v>
+        <v>382</v>
+      </c>
+      <c r="E518" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F518" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I518" s="138" t="s">
         <v>93</v>
@@ -17501,13 +17799,13 @@
         <v>2</v>
       </c>
       <c r="D519" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E519" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F519" s="28" t="s">
-        <v>86</v>
+        <v>383</v>
+      </c>
+      <c r="E519" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F519" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I519" s="138" t="s">
         <v>93</v>
@@ -17516,7 +17814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="520" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B520" s="25" t="s">
         <v>87</v>
       </c>
@@ -17524,13 +17822,13 @@
         <v>3</v>
       </c>
       <c r="D520" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E520" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F520" s="28" t="s">
-        <v>86</v>
+        <v>384</v>
+      </c>
+      <c r="E520" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F520" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I520" s="138" t="s">
         <v>93</v>
@@ -17547,13 +17845,13 @@
         <v>4</v>
       </c>
       <c r="D521" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E521" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F521" s="28" t="s">
-        <v>86</v>
+        <v>385</v>
+      </c>
+      <c r="E521" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="F521" s="222" t="s">
+        <v>327</v>
       </c>
       <c r="I521" s="138" t="s">
         <v>93</v>
@@ -22233,37 +22531,72 @@
   <autoFilter ref="I1:I782"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D656 D5 D32 D708 D682 D84 D110 D734 D162 D136 D214 D188 D266 D240 D318 D292 D370 D344 D422 D396 D474 D448 D526 D500 D578 D552 D630 D604 D58 D760">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D713 D10 D89 D635 D687 D37 D141 D739 D167 D115 D245 D193 D271 D219 D349 D297 D375 D323 D453 D401 D479 D427 D557 D505 D583 D531 D661 D609 D63 D765">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Worsening"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Improving"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F738 F9 F712 F374 F400 F426 F452 F478 F504 F530 F556 F582 F608 F634 F660 F686 F764">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F738 F9 F712 F374 F400 F452 F478 F530 F556 F582 F608 F634 F660 F686 F764 F426 F504">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F375 F401 F427 F453 F479 F505 F531 F557 F583 F609 F635 F661 F687 F713 F739 F765">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F375 F401 F453 F479 F531 F557 F583 F609 F635 F661 F687 F713 F739 F765">
+    <cfRule type="cellIs" dxfId="19" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>C370</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F440">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>C436</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F441">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>C437</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F442">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>C438</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F427">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>C422</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E518">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>B514</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E520">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>B516</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E519">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>B515</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -22439,7 +22772,7 @@
       </c>
       <c r="G6" s="123">
         <f>Exposure!C5</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="123">
         <f>Exposure!D5</f>
@@ -22451,7 +22784,7 @@
       </c>
       <c r="J6" s="91">
         <f>Exposure!F5</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -22467,7 +22800,7 @@
       </c>
       <c r="G7" s="124">
         <f>Exposure!C7</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7" s="124">
         <f>Exposure!D7</f>
@@ -22479,7 +22812,7 @@
       </c>
       <c r="J7" s="94">
         <f>Exposure!F7</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -22523,7 +22856,7 @@
       </c>
       <c r="G9" s="125">
         <f>SUM(G6:G8)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H9" s="125">
         <f>SUM(H6:H8)</f>
@@ -22535,7 +22868,7 @@
       </c>
       <c r="J9" s="95">
         <f>SUM(J6:J8)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22792,7 +23125,7 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D134)="&lt;","",'Detalle del Riesgo'!C134)</f>
         <v>6</v>
@@ -22960,7 +23293,7 @@
         <v>42171</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D238)="&lt;","",'Detalle del Riesgo'!C238)</f>
         <v>10</v>
@@ -23128,7 +23461,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D342)="&lt;","",'Detalle del Riesgo'!C342)</f>
         <v>14</v>
@@ -23171,255 +23504,255 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="str">
+      <c r="A26" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D368)="&lt;","",'Detalle del Riesgo'!C368)</f>
-        <v/>
-      </c>
-      <c r="B26" s="158" t="str">
+        <v>15</v>
+      </c>
+      <c r="B26" s="158">
         <f>IF($A26="","",'Detalle del Riesgo'!F370)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C26" s="159" t="str">
         <f>IF($A26="","",LEFT('Detalle del Riesgo'!D375,1))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D26" s="160" t="str">
         <f>IF($A26="","",'Detalle del Riesgo'!D368)</f>
-        <v/>
+        <v>El tester  que prueba el  modulo es el  mismo que lo realizo</v>
       </c>
       <c r="E26" s="161" t="str">
         <f>IF($A26="","",'Detalle del Riesgo'!C372)</f>
-        <v/>
+        <v>EPD</v>
       </c>
       <c r="F26" s="159" t="str">
         <f>IF(OR($A26="",$H26="Retired"),"",'Detalle del Riesgo'!D370)</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="G26" s="159" t="str">
         <f>IF($A26="","",'Detalle del Riesgo'!C375)</f>
-        <v/>
+        <v>1-3 meses</v>
       </c>
       <c r="H26" s="159" t="str">
         <f>IF($A26= "","",'Detalle del Riesgo'!F368)</f>
-        <v/>
+        <v>Investigar</v>
       </c>
       <c r="I26" s="162" t="str">
         <f>IF($A26= "","",'Detalle del Riesgo'!C370)</f>
-        <v/>
+        <v>06/18/2015</v>
       </c>
       <c r="J26" s="163" t="str">
         <f>IF($A26= "","",'Detalle del Riesgo'!F374)</f>
-        <v/>
+        <v>06/19/2015</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="str">
+      <c r="A27" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D394)="&lt;","",'Detalle del Riesgo'!C394)</f>
-        <v/>
-      </c>
-      <c r="B27" s="158" t="str">
+        <v>16</v>
+      </c>
+      <c r="B27" s="158">
         <f>IF($A27="","",'Detalle del Riesgo'!F396)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C27" s="159" t="str">
         <f>IF($A27="","",LEFT('Detalle del Riesgo'!D401,1))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D27" s="160" t="str">
         <f>IF($A27="","",'Detalle del Riesgo'!D394)</f>
-        <v/>
+        <v xml:space="preserve">Omicion de los errores encontrados en la fase de pruebas </v>
       </c>
       <c r="E27" s="161" t="str">
         <f>IF($A27="","",'Detalle del Riesgo'!C398)</f>
-        <v/>
+        <v>EPD</v>
       </c>
       <c r="F27" s="159" t="str">
         <f>IF(OR($A27="",$H27="Retired"),"",'Detalle del Riesgo'!D396)</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="G27" s="159" t="str">
         <f>IF($A27="","",'Detalle del Riesgo'!C401)</f>
-        <v/>
+        <v>1-3 meses</v>
       </c>
       <c r="H27" s="159" t="str">
         <f>IF($A27= "","",'Detalle del Riesgo'!F394)</f>
-        <v/>
+        <v>Investigar</v>
       </c>
       <c r="I27" s="162" t="str">
         <f>IF($A27= "","",'Detalle del Riesgo'!C396)</f>
-        <v/>
+        <v>06/15/2015</v>
       </c>
       <c r="J27" s="163" t="str">
         <f>IF($A27= "","",'Detalle del Riesgo'!F400)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="157" t="str">
+      <c r="A28" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D420)="&lt;","",'Detalle del Riesgo'!C420)</f>
-        <v/>
-      </c>
-      <c r="B28" s="158" t="str">
+        <v>17</v>
+      </c>
+      <c r="B28" s="158">
         <f>IF($A28="","",'Detalle del Riesgo'!F422)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="C28" s="159" t="str">
         <f>IF($A28="","",LEFT('Detalle del Riesgo'!D427,1))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D28" s="160" t="str">
         <f>IF($A28="","",'Detalle del Riesgo'!D420)</f>
-        <v/>
+        <v>No contar con un control sobre el proceso de pruebas</v>
       </c>
       <c r="E28" s="161" t="str">
         <f>IF($A28="","",'Detalle del Riesgo'!C424)</f>
-        <v/>
+        <v>EPD</v>
       </c>
       <c r="F28" s="159" t="str">
         <f>IF(OR($A28="",$H28="Retired"),"",'Detalle del Riesgo'!D422)</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="G28" s="159" t="str">
         <f>IF($A28="","",'Detalle del Riesgo'!C427)</f>
-        <v/>
+        <v>1-3 meses</v>
       </c>
       <c r="H28" s="159" t="str">
         <f>IF($A28= "","",'Detalle del Riesgo'!F420)</f>
-        <v/>
+        <v>Investigar</v>
       </c>
       <c r="I28" s="162" t="str">
         <f>IF($A28= "","",'Detalle del Riesgo'!C422)</f>
-        <v/>
+        <v>06/15/2015</v>
       </c>
       <c r="J28" s="163" t="str">
         <f>IF($A28= "","",'Detalle del Riesgo'!F426)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="157" t="str">
+      <c r="A29" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D446)="&lt;","",'Detalle del Riesgo'!C446)</f>
-        <v/>
-      </c>
-      <c r="B29" s="158" t="str">
+        <v>18</v>
+      </c>
+      <c r="B29" s="158">
         <f>IF($A29="","",'Detalle del Riesgo'!F448)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C29" s="159" t="str">
         <f>IF($A29="","",LEFT('Detalle del Riesgo'!D453,1))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D29" s="160" t="str">
         <f>IF($A29="","",'Detalle del Riesgo'!D446)</f>
-        <v/>
+        <v xml:space="preserve">El codigo  no va de acuerdo a las convenciones establesidas </v>
       </c>
       <c r="E29" s="161" t="str">
         <f>IF($A29="","",'Detalle del Riesgo'!C450)</f>
-        <v/>
+        <v>EPD</v>
       </c>
       <c r="F29" s="159" t="str">
         <f>IF(OR($A29="",$H29="Retired"),"",'Detalle del Riesgo'!D448)</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="G29" s="159" t="str">
         <f>IF($A29="","",'Detalle del Riesgo'!C453)</f>
-        <v/>
+        <v>1-3 meses</v>
       </c>
       <c r="H29" s="159" t="str">
         <f>IF($A29= "","",'Detalle del Riesgo'!F446)</f>
-        <v/>
+        <v>Investigar</v>
       </c>
       <c r="I29" s="162" t="str">
         <f>IF($A29= "","",'Detalle del Riesgo'!C448)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
       <c r="J29" s="163" t="str">
         <f>IF($A29= "","",'Detalle del Riesgo'!F452)</f>
-        <v/>
+        <v>06/17/2015</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="157" t="str">
+      <c r="A30" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D472)="&lt;","",'Detalle del Riesgo'!C472)</f>
-        <v/>
-      </c>
-      <c r="B30" s="158" t="str">
+        <v>19</v>
+      </c>
+      <c r="B30" s="158">
         <f>IF($A30="","",'Detalle del Riesgo'!F474)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C30" s="159" t="str">
         <f>IF($A30="","",LEFT('Detalle del Riesgo'!D479,1))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D30" s="160" t="str">
         <f>IF($A30="","",'Detalle del Riesgo'!D472)</f>
-        <v/>
+        <v xml:space="preserve">Los modulos son mas complejos del tiempo establesido </v>
       </c>
       <c r="E30" s="161" t="str">
         <f>IF($A30="","",'Detalle del Riesgo'!C476)</f>
-        <v/>
+        <v>EPD</v>
       </c>
       <c r="F30" s="159" t="str">
         <f>IF(OR($A30="",$H30="Retired"),"",'Detalle del Riesgo'!D474)</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="G30" s="159" t="str">
         <f>IF($A30="","",'Detalle del Riesgo'!C479)</f>
-        <v/>
+        <v>1-3 meses</v>
       </c>
       <c r="H30" s="159" t="str">
         <f>IF($A30= "","",'Detalle del Riesgo'!F472)</f>
-        <v/>
+        <v>Investigar</v>
       </c>
       <c r="I30" s="162" t="str">
         <f>IF($A30= "","",'Detalle del Riesgo'!C474)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
       <c r="J30" s="163" t="str">
         <f>IF($A30= "","",'Detalle del Riesgo'!F478)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="157" t="str">
+      <c r="A31" s="157">
         <f>IF(LEFT('Detalle del Riesgo'!D498)="&lt;","",'Detalle del Riesgo'!C498)</f>
-        <v/>
-      </c>
-      <c r="B31" s="158" t="str">
+        <v>20</v>
+      </c>
+      <c r="B31" s="158">
         <f>IF($A31="","",'Detalle del Riesgo'!F500)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C31" s="159" t="str">
         <f>IF($A31="","",LEFT('Detalle del Riesgo'!D505,1))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D31" s="160" t="str">
         <f>IF($A31="","",'Detalle del Riesgo'!D498)</f>
-        <v/>
+        <v>no se encuentra bien definido el diagramade clases para el desarrrollo</v>
       </c>
       <c r="E31" s="161" t="str">
         <f>IF($A31="","",'Detalle del Riesgo'!C502)</f>
-        <v/>
+        <v>EPD</v>
       </c>
       <c r="F31" s="159" t="str">
         <f>IF(OR($A31="",$H31="Retired"),"",'Detalle del Riesgo'!D500)</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="G31" s="159" t="str">
         <f>IF($A31="","",'Detalle del Riesgo'!C505)</f>
-        <v/>
+        <v>1-3 meses</v>
       </c>
       <c r="H31" s="159" t="str">
         <f>IF($A31= "","",'Detalle del Riesgo'!F498)</f>
-        <v/>
+        <v>Investigar</v>
       </c>
       <c r="I31" s="162" t="str">
         <f>IF($A31= "","",'Detalle del Riesgo'!C500)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
       <c r="J31" s="163" t="str">
         <f>IF($A31= "","",'Detalle del Riesgo'!F504)</f>
-        <v/>
+        <v>06/16/2015</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -23917,7 +24250,7 @@
       </c>
       <c r="C12" s="123">
         <f>Resumen!G6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="123">
         <f>Resumen!I6</f>
@@ -23938,7 +24271,7 @@
       </c>
       <c r="C13" s="124">
         <f>Resumen!G7</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="124">
         <f>Resumen!I7</f>
@@ -23987,7 +24320,7 @@
       </c>
       <c r="C15" s="207">
         <f>SUM(C12:C14)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15" s="207">
         <f>SUM(D12:D14)</f>
@@ -24081,37 +24414,37 @@
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="205" t="str">
         <f>CONCATENATE(Resumen!F26,Resumen!H26)</f>
-        <v/>
+        <v>RInvestigar</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="205" t="str">
         <f>CONCATENATE(Resumen!F27,Resumen!H27)</f>
-        <v/>
+        <v>YInvestigar</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" s="205" t="str">
         <f>CONCATENATE(Resumen!F28,Resumen!H28)</f>
-        <v/>
+        <v>YInvestigar</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="205" t="str">
         <f>CONCATENATE(Resumen!F29,Resumen!H29)</f>
-        <v/>
+        <v>RInvestigar</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" s="205" t="str">
         <f>CONCATENATE(Resumen!F30,Resumen!H30)</f>
-        <v/>
+        <v>YInvestigar</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="205" t="str">
         <f>CONCATENATE(Resumen!F31,Resumen!H31)</f>
-        <v/>
+        <v>YInvestigar</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
@@ -30084,7 +30417,7 @@
       </c>
       <c r="C5" s="54">
         <f>COUNTIF($C$16:$C$45,"R-N")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="54">
         <f>COUNTIF($D$16:$D$45,"R-M")</f>
@@ -30096,7 +30429,7 @@
       </c>
       <c r="F5" s="55">
         <f>COUNTIF($F$16:$F$45,"R-Abierto")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
@@ -30115,11 +30448,11 @@
       </c>
       <c r="N5" s="109">
         <f>COUNTIF($M$16:$M$45,"Alta - Media")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="109">
         <f>COUNTIF($M$16:$M$45,"Alta - Alta")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" s="110">
         <f>COUNTIF($M$16:$M$45,"Alta - Muy alta")</f>
@@ -30163,7 +30496,7 @@
       </c>
       <c r="O6" s="109">
         <f>COUNTIF($M$16:$M$45,"Media - Alta")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="110">
         <f>COUNTIF($M$16:$M$45,"Media - Muy alta")</f>
@@ -30186,7 +30519,7 @@
       </c>
       <c r="C7" s="54">
         <f>COUNTIF($C$16:$C$45,"Y-N")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="54">
         <f>COUNTIF($D$16:$D$45,"Y-M")</f>
@@ -30198,7 +30531,7 @@
       </c>
       <c r="F7" s="55">
         <f>COUNTIF($F$16:$F$45,"Y-Abierto")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="52"/>
@@ -30357,7 +30690,7 @@
       </c>
       <c r="C11" s="43">
         <f>SUM(C5:C9)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="43">
         <f>SUM(D5:D9)</f>
@@ -30369,7 +30702,7 @@
       </c>
       <c r="F11" s="40">
         <f>SUM(F5:F10)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -31458,25 +31791,25 @@
       <c r="P29"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="str">
+      <c r="B30" s="60">
         <f>Resumen!A26</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(B30="","",CONCATENATE(I30,"-",Resumen!C26))</f>
-        <v/>
+        <v>R-N</v>
       </c>
       <c r="D30" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>R-</v>
       </c>
       <c r="E30" s="51" t="str">
         <f>IF($B30="","",CONCATENATE(I30,"-",Resumen!H26))</f>
-        <v/>
+        <v>R-Investigar</v>
       </c>
       <c r="F30" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>R-Abierto</v>
       </c>
       <c r="G30" s="51" t="str">
         <f>IF(Resumen!H26="Retirar","Cerrado","Abierto")</f>
@@ -31488,45 +31821,45 @@
       </c>
       <c r="I30" s="10" t="str">
         <f>'Detalle del Riesgo'!D370</f>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="str">
         <f>'Detalle del Riesgo'!C373</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="L30" t="str">
         <f>'Detalle del Riesgo'!$C374</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="M30" t="str">
         <f>IF(OR(B30="",Resumen!H26="Retired"),"",CONCATENATE(K30," - ",L30))</f>
-        <v/>
+        <v>Alta - Alta</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="str">
+      <c r="B31" s="60">
         <f>Resumen!A27</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C31" s="51" t="str">
         <f>IF(B31="","",CONCATENATE(I31,"-",Resumen!C27))</f>
-        <v/>
+        <v>Y-N</v>
       </c>
       <c r="D31" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Y-</v>
       </c>
       <c r="E31" s="51" t="str">
         <f>IF($B31="","",CONCATENATE(I31,"-",Resumen!H27))</f>
-        <v/>
+        <v>Y-Investigar</v>
       </c>
       <c r="F31" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y-Abierto</v>
       </c>
       <c r="G31" s="51" t="str">
         <f>IF(Resumen!H27="Retirar","Cerrado","Abierto")</f>
@@ -31538,45 +31871,45 @@
       </c>
       <c r="I31" s="10" t="str">
         <f>'Detalle del Riesgo'!D396</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="str">
         <f>'Detalle del Riesgo'!C399</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="L31" t="str">
         <f>'Detalle del Riesgo'!$C400</f>
-        <v>Baja</v>
+        <v>Media</v>
       </c>
       <c r="M31" t="str">
         <f>IF(OR(B31="",Resumen!H27="Retired"),"",CONCATENATE(K31," - ",L31))</f>
-        <v/>
+        <v>Alta - Media</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="60" t="str">
+      <c r="B32" s="60">
         <f>Resumen!A28</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(B32="","",CONCATENATE(I32,"-",Resumen!C28))</f>
-        <v/>
+        <v>Y-N</v>
       </c>
       <c r="D32" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Y-</v>
       </c>
       <c r="E32" s="51" t="str">
         <f>IF($B32="","",CONCATENATE(I32,"-",Resumen!H28))</f>
-        <v/>
+        <v>Y-Investigar</v>
       </c>
       <c r="F32" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y-Abierto</v>
       </c>
       <c r="G32" s="51" t="str">
         <f>IF(Resumen!H28="Retirar","Cerrado","Abierto")</f>
@@ -31588,45 +31921,45 @@
       </c>
       <c r="I32" s="10" t="str">
         <f>'Detalle del Riesgo'!D422</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="str">
         <f>'Detalle del Riesgo'!C425</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="L32" t="str">
         <f>'Detalle del Riesgo'!$C426</f>
-        <v>Baja</v>
+        <v>Media</v>
       </c>
       <c r="M32" t="str">
         <f>IF(OR(B32="",Resumen!H28="Retired"),"",CONCATENATE(K32," - ",L32))</f>
-        <v/>
+        <v>Alta - Media</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="str">
+      <c r="B33" s="60">
         <f>Resumen!A29</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C33" s="51" t="str">
         <f>IF(B33="","",CONCATENATE(I33,"-",Resumen!C29))</f>
-        <v/>
+        <v>R-N</v>
       </c>
       <c r="D33" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>R-</v>
       </c>
       <c r="E33" s="51" t="str">
         <f>IF($B33="","",CONCATENATE(I33,"-",Resumen!H29))</f>
-        <v/>
+        <v>R-Investigar</v>
       </c>
       <c r="F33" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>R-Abierto</v>
       </c>
       <c r="G33" s="51" t="str">
         <f>IF(Resumen!H29="Retirar","Cerrado","Abierto")</f>
@@ -31638,45 +31971,45 @@
       </c>
       <c r="I33" s="10" t="str">
         <f>'Detalle del Riesgo'!D448</f>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="str">
         <f>'Detalle del Riesgo'!C451</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="L33" t="str">
         <f>'Detalle del Riesgo'!$C452</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="M33" t="str">
         <f>IF(OR(B33="",Resumen!H29="Retired"),"",CONCATENATE(K33," - ",L33))</f>
-        <v/>
+        <v>Alta - Alta</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="60" t="str">
+      <c r="B34" s="60">
         <f>Resumen!A30</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C34" s="51" t="str">
         <f>IF(B34="","",CONCATENATE(I34,"-",Resumen!C30))</f>
-        <v/>
+        <v>Y-N</v>
       </c>
       <c r="D34" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Y-</v>
       </c>
       <c r="E34" s="51" t="str">
         <f>IF($B34="","",CONCATENATE(I34,"-",Resumen!H30))</f>
-        <v/>
+        <v>Y-Investigar</v>
       </c>
       <c r="F34" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y-Abierto</v>
       </c>
       <c r="G34" s="51" t="str">
         <f>IF(Resumen!H30="Retirar","Cerrado","Abierto")</f>
@@ -31688,45 +32021,45 @@
       </c>
       <c r="I34" s="10" t="str">
         <f>'Detalle del Riesgo'!D474</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="str">
         <f>'Detalle del Riesgo'!C477</f>
-        <v>Baja</v>
+        <v>Media</v>
       </c>
       <c r="L34" t="str">
         <f>'Detalle del Riesgo'!$C478</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="M34" t="str">
         <f>IF(OR(B34="",Resumen!H30="Retired"),"",CONCATENATE(K34," - ",L34))</f>
-        <v/>
+        <v>Media - Alta</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="str">
+      <c r="B35" s="60">
         <f>Resumen!A31</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C35" s="51" t="str">
         <f>IF(B35="","",CONCATENATE(I35,"-",Resumen!C31))</f>
-        <v/>
+        <v>Y-N</v>
       </c>
       <c r="D35" s="51" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Y-</v>
       </c>
       <c r="E35" s="51" t="str">
         <f>IF($B35="","",CONCATENATE(I35,"-",Resumen!H31))</f>
-        <v/>
+        <v>Y-Investigar</v>
       </c>
       <c r="F35" s="51" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y-Abierto</v>
       </c>
       <c r="G35" s="51" t="str">
         <f>IF(Resumen!H31="Retirar","Cerrado","Abierto")</f>
@@ -31738,20 +32071,20 @@
       </c>
       <c r="I35" s="10" t="str">
         <f>'Detalle del Riesgo'!D500</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="str">
         <f>'Detalle del Riesgo'!C503</f>
-        <v>Baja</v>
+        <v>Alta</v>
       </c>
       <c r="L35" t="str">
         <f>'Detalle del Riesgo'!$C504</f>
-        <v>Baja</v>
+        <v>Media</v>
       </c>
       <c r="M35" t="str">
         <f>IF(OR(B35="",Resumen!H31="Retired"),"",CONCATENATE(K35," - ",L35))</f>
-        <v/>
+        <v>Alta - Media</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
